--- a/biology/Botanique/Lausanne_jardins/Lausanne_jardins.xlsx
+++ b/biology/Botanique/Lausanne_jardins/Lausanne_jardins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lausanne jardins est une manifestation artistique lausannoise composée d'installations végétales en ville. La manifestation a eu lieu en 1997, 2000, 2004, 2009, 2014 et en 2019. 
-Les projets sont choisis parmi des candidatures et sont l'œuvre de paysagistes, d'architectes et d'artistes[1].
+Les projets sont choisis parmi des candidatures et sont l'œuvre de paysagistes, d'architectes et d'artistes.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Éditions et thèmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1997 : Jardins faisant[2]
-2000 : Jardins la ville[2]
-2004 : Jardins de passages[2]
-2009 : Jardins dessus-dessous[2]
-2014 : Landing[3]
-2019 : Terre à terre[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1997 : Jardins faisant
+2000 : Jardins la ville
+2004 : Jardins de passages
+2009 : Jardins dessus-dessous
+2014 : Landing
+2019 : Terre à terre</t>
         </is>
       </c>
     </row>
@@ -547,9 +561,11 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, parmi une trentaine de jardins, des installations dans le jardin Jean-Jacques Mercier proposent en même temps de prendre conscience de la crise climatique et de mettre en scène des moyens d'atténuer les îlots de chaleur urbains, de mettre en valeur des arbres vivants et prêter une voix à ceux qui ont disparu[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, parmi une trentaine de jardins, des installations dans le jardin Jean-Jacques Mercier proposent en même temps de prendre conscience de la crise climatique et de mettre en scène des moyens d'atténuer les îlots de chaleur urbains, de mettre en valeur des arbres vivants et prêter une voix à ceux qui ont disparu. 
 </t>
         </is>
       </c>
